--- a/Output_testing/R1_201907/Country/HKD/MN/MONGOLIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MONGOLIA_201907_HKD_MN.xlsx
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>150</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/MONGOLIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MONGOLIA_201907_HKD_MN.xlsx
@@ -810,136 +810,447 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>35.669124</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>16.87761290921249</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>43.107129</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>17.36065992718363</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>87.988131</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>27.66021809635167</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>32.279148</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>18.18785452884347</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-25.39507850144895</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30.389802</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>14.37958819912739</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>15.040593</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>6.057341934698983</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>23.494064</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>7.385665848609106</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>27.078866</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>15.25772847579637</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>94.99421401727226</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>43.710975</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>20.68278761021057</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>70.90006200000001</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>28.55378898460705</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>63.213396</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>19.87195659345286</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>26.458143</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>14.90797885952065</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-31.48531919439104</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>27.512235</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>13.01800550518953</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>25.030913</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>10.08077267822498</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>37.204537</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>11.69573209361369</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>25.794334</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>14.53395221151442</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>7.917775367921465</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>8.971306</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.054929221234112</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>5.139611</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.431917446639019</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>7.387672</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.975258715224959</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>8.874853999999999</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.789926259636984</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>7.912142</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.458137733609099</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>17.38555373549231</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1.241875</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.5876198566476785</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>2.754596</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.109366490001696</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>11.951235</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.757026804226032</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>6.441294</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.629380746031844</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-19.95028469728334</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>7.858212</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>3.718281959896984</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>6.783079</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.73176921103284</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>13.243308</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>4.163206826124751</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>4.727445</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.663703575853627</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-29.88149501066363</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2.346275</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.110190461323428</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>3.154745</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.270519665134343</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>4.787727</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.505084509702695</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>3.709176</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.089954589565918</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>37.72042483751135</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>2.11398</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.000275087714995</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>23.682418</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>9.537689349513681</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>12.980537</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>4.080601330510843</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>3.670551</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.068191131584419</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>28.29541264201691</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>55.323298</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>26.17740790340154</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>50.379309</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>20.28940621203286</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>54.335744</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>17.08115074597427</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>30.433987</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>17.14818892644606</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>4.631936875361187</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1282,543 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>27.512235</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>92.65328250378337</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>25.030913</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>87.99355403055364</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>37.204537</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>94.68557761771532</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>25.794334</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>78.88379619851939</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>7.917775367921465</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>0.06666629679321243</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>5.59962</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>17.12466322523207</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>0.883068</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>2.247408794677935</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.859851</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>2.629581792850054</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>1.124005</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.785325067217005</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>3.134792</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>11.02003307776058</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.869063</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>2.211766058026325</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>0.663029386020201</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-54.92094713729665</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.5437507709955539</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.3005241138013611</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.501436423919567</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.5147656113671931</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-14.56848772763262</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.1997490987245094</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.05970571951779972</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.1656648364664113</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.182274041430468</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.1050435270973525</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.09190761504459935</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-60.63386697904465</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.07960964206842626</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.06471173615426655</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.691684253700383</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.3819898845906268</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>0.577227</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>1.943934264148709</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.1192457241280176</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1850,447 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>35.669124</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>19.63660196591491</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>43.107129</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>19.60687503120491</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>87.988131</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>31.55836368829523</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>32.279148</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>22.29573408493951</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-25.39507850144895</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>30.389802</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>16.73022431660965</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>15.040593</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>6.841073256031859</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>23.494064</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>8.426525348380046</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>27.078866</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>18.70381447669281</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>94.99421401727226</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>43.710975</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>24.06380985462546</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>70.90006200000001</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>32.24823103711407</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>63.213396</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>22.6725050102522</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>26.458143</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>18.27507097490007</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-31.48531919439104</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>8.971306</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.196627400779672</v>
+      </c>
+      <c r="K47" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>5.139611</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.829463809277679</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>7.387672</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.360213612823337</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>8.874853999999999</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.18310966524021</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>7.912142</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.465045548113026</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>17.38555373549231</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>7.858212</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>4.326110762007391</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>6.783079</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.085220133305338</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>13.243308</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.749926217890795</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>4.727445</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.265323379079797</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-29.88149501066363</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>2.292151</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.261877270458726</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>3.124864</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.421315206065129</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>4.751614</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.70424307249344</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>3.703127</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.557810227046879</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>38.28478968026801</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>2.11398</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.163790392606917</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>23.682418</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>10.77172664787668</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>12.980537</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.655679156491831</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>3.670551</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.535309452443069</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>28.29541264201691</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>2.228351</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.226754030386293</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1.94798</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.8860205100480374</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>2.801889</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.00494272433442</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>3.419859</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.362152398569726</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>59.72804944861192</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1.449516</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.7979890040255857</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>0.950215</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.4321964183181017</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1.305151</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.4681134768749913</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>2.05903</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.422205609420453</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>341.4521613474493</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>50.759914</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>27.94439883194417</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>46.850201</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>21.3093763723822</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>60.127871</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>21.56583165541839</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>24.497621</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>16.92090644801498</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-27.53227057321239</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2322,511 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>31.888042</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>54.92695308786546</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>4.656737</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>35.70075329240561</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>2.980506</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>25.19920904826063</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>5.59517</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>78.92131452538277</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>405.71865001175</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>0.7085133547438158</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>0.667674</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>5.118705383996051</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1.116665</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>9.441039465069343</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>1.15465</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>16.28663576204713</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>115.5609363594444</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>RUBBER TYRES, INTERCHANGEABLE TYRE TREADS, TYRE FLAPS AND INNER TUBES FOR WHEELS OF ALL KINDS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.8706661230625478</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>1.50028204795221</v>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>1.04740001311789</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-26.48648648648648</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>0.550737</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.9486410411386111</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>3.785030228140467</v>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.399996753404867</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.7705279104259717</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-80.95850587693981</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.08465195541021765</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.478379393253779</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1.075563</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>9.093535420352906</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.6386014354920725</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-88.02800886383228</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>0.521499</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.8982787688365672</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>0.7562410000000001</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>5.797701989741338</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.4721682250323307</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.6050591327664431</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-10.60167142529646</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.1273611879750024</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.514810937850501</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.374736552332408</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.427995833306886</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>40.26256182683863</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.3730276441892333</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.1416687736692803</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.3215293484569906</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.47072825985086</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>2.03853</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>15.62833731197781</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.2863367305846418</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>24.259541</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>41.7869077831793</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>3.778001</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>28.96394656590262</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>5.975278</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>50.5190324875953</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.3215716642299834</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-99.37373035353001</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
